--- a/GMP Sizes.xlsx
+++ b/GMP Sizes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>x86</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>gmp_randalg_t</t>
+  </si>
+  <si>
+    <t>.NET Type</t>
+  </si>
+  <si>
+    <t>Int16</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>Int64</t>
+  </si>
+  <si>
+    <t>UInt32</t>
+  </si>
+  <si>
+    <t>UInt32/UInt64</t>
+  </si>
+  <si>
+    <t>GMP/C Type</t>
   </si>
 </sst>
 </file>
@@ -496,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M17"/>
+  <dimension ref="A3:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="1.7109375" style="1" customWidth="1"/>
     <col min="5" max="10" width="11.42578125" style="1"/>
@@ -860,6 +881,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
